--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felizardo Chaguala\Desktop\dhis2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22822BD-8012-41C7-82BF-4AEA2DE57713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CEFDEC-6574-4EC8-8CFB-D2F4DAB998CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9F34BF02-54FC-45FB-A073-5E82DAD013A4}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -465,7 +465,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felizardo Chaguala\Desktop\dhis2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CEFDEC-6574-4EC8-8CFB-D2F4DAB998CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE008F4E-DAB7-452E-87A1-3C0F868711FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9F34BF02-54FC-45FB-A073-5E82DAD013A4}"/>
   </bookViews>
@@ -34,22 +34,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>CT_TX_NEW - Breastfeeding</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
+  <si>
+    <t>Reporting_Period</t>
+  </si>
+  <si>
+    <t>Health_Facility</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Breastfeeding</t>
+  </si>
+  <si>
+    <t>Data Check</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>People who inject drugs (PWID)</t>
+  </si>
+  <si>
+    <t>Men who have sex with men (MSM)</t>
+  </si>
+  <si>
+    <t>Female sex workers (FSW)</t>
+  </si>
+  <si>
+    <t>People in prison and other closed settings</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>&gt;=65</t>
+  </si>
+  <si>
+    <t>unknown age</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>Centro de Saude Militar de Catandica</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>QSxnM0virqc</t>
+  </si>
+  <si>
+    <t>DHIS2 Organization Unit. CODE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -62,8 +160,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,13 +187,59 @@
         <bgColor indexed="21"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="59"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -100,30 +257,50 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="59"/>
-      </left>
-      <right style="thin">
-        <color indexed="59"/>
-      </right>
-      <top style="thin">
-        <color indexed="59"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -440,32 +617,677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACFA907-0D95-4933-814E-ACC98A48BE35}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:DC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="DC2" sqref="DC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="98" width="8.140625" style="1" customWidth="1"/>
-    <col min="99" max="99" width="12.5703125" style="1" customWidth="1"/>
-    <col min="100" max="103" width="9.5703125" style="1" customWidth="1"/>
-    <col min="104" max="104" width="8.140625" style="1" customWidth="1"/>
-    <col min="105" max="185" width="8.28515625" style="1"/>
-    <col min="186" max="186" width="9.7109375" style="1" customWidth="1"/>
-    <col min="187" max="16384" width="8.28515625" style="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="101" width="8.140625" style="1" customWidth="1"/>
+    <col min="102" max="102" width="12.5703125" style="1" customWidth="1"/>
+    <col min="103" max="106" width="9.5703125" style="1" customWidth="1"/>
+    <col min="107" max="107" width="8.140625" style="1" customWidth="1"/>
+    <col min="108" max="188" width="8.28515625" style="1"/>
+    <col min="189" max="189" width="9.7109375" style="1" customWidth="1"/>
+    <col min="190" max="16384" width="8.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" spans="1:107" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="CA1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CB1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="CD1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="CH1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="CJ1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="CM1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CN1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="CO1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="CQ1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="CR1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CS1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="CT1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="CU1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="CV1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="CX1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CY1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="DB1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="DC1" s="13" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:107" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
+        <v>202505</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2" si="0">+E2+AJ2+BO2</f>
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <f t="shared" ref="T2" si="1">SUM(F2:S2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3">
+        <f t="shared" ref="AI2" si="2">SUM(U2:AH2)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="3">
         <v>2</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="3">
+        <f t="shared" ref="AY2" si="3">SUM(AK2:AX2)</f>
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="3">
+        <f t="shared" ref="BN2" si="4">SUM(AZ2:BM2)</f>
+        <v>2</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>19</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>3</v>
+      </c>
+      <c r="BY2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="3">
+        <f t="shared" ref="CF2" si="5">SUM(BP2:CE2)</f>
+        <v>7</v>
+      </c>
+      <c r="CG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="3">
+        <v>3</v>
+      </c>
+      <c r="CM2" s="3">
+        <v>2</v>
+      </c>
+      <c r="CN2" s="3">
+        <v>4</v>
+      </c>
+      <c r="CO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="3">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="3">
+        <v>2</v>
+      </c>
+      <c r="CR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="3">
+        <f t="shared" ref="CW2" si="6">SUM(CG2:CV2)</f>
+        <v>12</v>
+      </c>
+      <c r="CX2" s="3">
+        <v>1</v>
+      </c>
+      <c r="CY2" s="3">
+        <v>1</v>
+      </c>
+      <c r="CZ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC2" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
